--- a/preprocessed_dataset/KapilExposesKejriwal1.xlsx
+++ b/preprocessed_dataset/KapilExposesKejriwal1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9283" uniqueCount="4374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9281" uniqueCount="4374">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -14443,9 +14443,6 @@
     <t>sarcasm</t>
   </si>
   <si>
-    <t>coments</t>
-  </si>
-  <si>
     <t>doubt</t>
   </si>
   <si>
@@ -14462,6 +14459,9 @@
   </si>
   <si>
     <t>cc</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -15296,8 +15296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1350" workbookViewId="0">
-      <selection activeCell="K1368" sqref="K1368"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15334,7 +15334,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>4367</v>
+        <v>4373</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -16169,7 +16169,7 @@
         <v>3882</v>
       </c>
       <c r="J24" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="K24" t="s">
         <v>4364</v>
@@ -16318,7 +16318,7 @@
         <v>851</v>
       </c>
       <c r="J28" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L28" t="s">
         <v>15</v>
@@ -17474,7 +17474,7 @@
         <v>552</v>
       </c>
       <c r="J60" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L60" t="s">
         <v>15</v>
@@ -17623,7 +17623,7 @@
         <v>608</v>
       </c>
       <c r="J64" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L64" t="s">
         <v>15</v>
@@ -18674,7 +18674,7 @@
         <v>2053</v>
       </c>
       <c r="J93" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L93" t="s">
         <v>15</v>
@@ -19465,7 +19465,7 @@
         <v>147</v>
       </c>
       <c r="J115" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L115" t="s">
         <v>15</v>
@@ -19783,7 +19783,7 @@
         <v>3</v>
       </c>
       <c r="K124" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L124" t="s">
         <v>15</v>
@@ -19894,7 +19894,7 @@
         <v>3</v>
       </c>
       <c r="K127" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L127" t="s">
         <v>15</v>
@@ -20223,11 +20223,8 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="K136" t="s">
-        <v>4369</v>
-      </c>
       <c r="L136" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M136" t="s">
         <v>521</v>
@@ -20484,7 +20481,7 @@
         <v>11368</v>
       </c>
       <c r="J143" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L143" t="s">
         <v>15</v>
@@ -20557,7 +20554,7 @@
         <v>237</v>
       </c>
       <c r="J145" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L145" t="s">
         <v>15</v>
@@ -20969,7 +20966,7 @@
         <v>1012</v>
       </c>
       <c r="J156" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L156" t="s">
         <v>15</v>
@@ -21191,7 +21188,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L162" t="s">
         <v>15</v>
@@ -21229,7 +21226,7 @@
         <v>5</v>
       </c>
       <c r="J163" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L163" t="s">
         <v>15</v>
@@ -21883,7 +21880,7 @@
         <v>5913</v>
       </c>
       <c r="J181" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L181" t="s">
         <v>15</v>
@@ -22175,7 +22172,7 @@
         <v>1809</v>
       </c>
       <c r="K189" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L189" t="s">
         <v>15</v>
@@ -22552,7 +22549,7 @@
         <v>566</v>
       </c>
       <c r="J199" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L199" t="s">
         <v>15</v>
@@ -22666,7 +22663,7 @@
         <v>111</v>
       </c>
       <c r="K202" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L202" t="s">
         <v>15</v>
@@ -22774,7 +22771,7 @@
         <v>115</v>
       </c>
       <c r="K205" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L205" t="s">
         <v>15</v>
@@ -22812,7 +22809,7 @@
         <v>2017</v>
       </c>
       <c r="J206" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L206" t="s">
         <v>15</v>
@@ -23145,7 +23142,7 @@
         <v>1038</v>
       </c>
       <c r="J215" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L215" t="s">
         <v>15</v>
@@ -23183,7 +23180,7 @@
         <v>124</v>
       </c>
       <c r="K216" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L216" t="s">
         <v>15</v>
@@ -23446,7 +23443,7 @@
         <v>998</v>
       </c>
       <c r="K223" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L223" t="s">
         <v>15</v>
@@ -23484,7 +23481,7 @@
         <v>886</v>
       </c>
       <c r="K224" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L224" t="s">
         <v>15</v>
@@ -23709,7 +23706,7 @@
         <v>3017</v>
       </c>
       <c r="K230" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L230" t="s">
         <v>15</v>
@@ -23747,7 +23744,7 @@
         <v>633</v>
       </c>
       <c r="K231" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L231" t="s">
         <v>15</v>
@@ -23893,7 +23890,7 @@
         <v>191</v>
       </c>
       <c r="K235" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L235" t="s">
         <v>15</v>
@@ -23966,7 +23963,7 @@
         <v>1071</v>
       </c>
       <c r="K237" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L237" t="s">
         <v>15</v>
@@ -24004,7 +24001,7 @@
         <v>162</v>
       </c>
       <c r="K238" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L238" t="s">
         <v>15</v>
@@ -24077,7 +24074,7 @@
         <v>159</v>
       </c>
       <c r="K240" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L240" t="s">
         <v>15</v>
@@ -24153,7 +24150,7 @@
         <v>498</v>
       </c>
       <c r="K242" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L242" t="s">
         <v>15</v>
@@ -24302,7 +24299,7 @@
         <v>598</v>
       </c>
       <c r="K246" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L246" t="s">
         <v>15</v>
@@ -24378,7 +24375,7 @@
         <v>110</v>
       </c>
       <c r="K248" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L248" t="s">
         <v>15</v>
@@ -24492,7 +24489,7 @@
         <v>678</v>
       </c>
       <c r="K251" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L251" t="s">
         <v>15</v>
@@ -24603,7 +24600,7 @@
         <v>1019</v>
       </c>
       <c r="K254" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L254" t="s">
         <v>15</v>
@@ -24679,7 +24676,7 @@
         <v>226</v>
       </c>
       <c r="K256" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L256" t="s">
         <v>15</v>
@@ -24755,7 +24752,7 @@
         <v>1064</v>
       </c>
       <c r="K258" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L258" t="s">
         <v>15</v>
@@ -24863,7 +24860,7 @@
         <v>659</v>
       </c>
       <c r="K261" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L261" t="s">
         <v>15</v>
@@ -24939,7 +24936,7 @@
         <v>166</v>
       </c>
       <c r="K263" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L263" t="s">
         <v>15</v>
@@ -24977,7 +24974,7 @@
         <v>737</v>
       </c>
       <c r="K264" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L264" t="s">
         <v>15</v>
@@ -25015,7 +25012,7 @@
         <v>280</v>
       </c>
       <c r="K265" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L265" t="s">
         <v>15</v>
@@ -25053,7 +25050,7 @@
         <v>1073</v>
       </c>
       <c r="K266" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L266" t="s">
         <v>15</v>
@@ -25164,7 +25161,7 @@
         <v>1126</v>
       </c>
       <c r="K269" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L269" t="s">
         <v>15</v>
@@ -25316,7 +25313,7 @@
         <v>429</v>
       </c>
       <c r="K273" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L273" t="s">
         <v>15</v>
@@ -25465,7 +25462,7 @@
         <v>2130</v>
       </c>
       <c r="K277" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L277" t="s">
         <v>15</v>
@@ -25690,7 +25687,7 @@
         <v>113</v>
       </c>
       <c r="K283" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L283" t="s">
         <v>15</v>
@@ -25728,7 +25725,7 @@
         <v>3862</v>
       </c>
       <c r="K284" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L284" t="s">
         <v>15</v>
@@ -25766,7 +25763,7 @@
         <v>329</v>
       </c>
       <c r="K285" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L285" t="s">
         <v>15</v>
@@ -25804,7 +25801,7 @@
         <v>4341</v>
       </c>
       <c r="K286" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L286" t="s">
         <v>15</v>
@@ -25991,7 +25988,7 @@
         <v>1047</v>
       </c>
       <c r="K291" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L291" t="s">
         <v>15</v>
@@ -26064,7 +26061,7 @@
         <v>3075</v>
       </c>
       <c r="K293" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L293" t="s">
         <v>15</v>
@@ -26172,7 +26169,7 @@
         <v>316</v>
       </c>
       <c r="K296" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L296" t="s">
         <v>15</v>
@@ -26248,7 +26245,7 @@
         <v>1818</v>
       </c>
       <c r="K298" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L298" t="s">
         <v>15</v>
@@ -26286,7 +26283,7 @@
         <v>12232</v>
       </c>
       <c r="K299" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L299" t="s">
         <v>15</v>
@@ -26435,7 +26432,7 @@
         <v>2678</v>
       </c>
       <c r="K303" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L303" t="s">
         <v>15</v>
@@ -26581,7 +26578,7 @@
         <v>107</v>
       </c>
       <c r="J307" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="L307" t="s">
         <v>15</v>
@@ -26695,7 +26692,7 @@
         <v>1012</v>
       </c>
       <c r="K310" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L310" t="s">
         <v>15</v>
@@ -26847,7 +26844,7 @@
         <v>134</v>
       </c>
       <c r="K314" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L314" t="s">
         <v>15</v>
@@ -26923,7 +26920,7 @@
         <v>125</v>
       </c>
       <c r="K316" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L316" t="s">
         <v>15</v>
@@ -27037,7 +27034,7 @@
         <v>1122</v>
       </c>
       <c r="J319" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="L319" t="s">
         <v>15</v>
@@ -27110,7 +27107,7 @@
         <v>1103</v>
       </c>
       <c r="K321" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L321" t="s">
         <v>15</v>
@@ -27262,7 +27259,7 @@
         <v>1009</v>
       </c>
       <c r="K325" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="L325" t="s">
         <v>15</v>
@@ -27335,7 +27332,7 @@
         <v>895</v>
       </c>
       <c r="K327" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L327" t="s">
         <v>15</v>
@@ -27484,7 +27481,7 @@
         <v>888</v>
       </c>
       <c r="K331" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L331" t="s">
         <v>15</v>
@@ -27636,7 +27633,7 @@
         <v>149</v>
       </c>
       <c r="K335" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L335" t="s">
         <v>15</v>
@@ -28089,7 +28086,7 @@
         <v>105</v>
       </c>
       <c r="K347" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L347" t="s">
         <v>15</v>
@@ -28238,7 +28235,7 @@
         <v>6360</v>
       </c>
       <c r="K351" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L351" t="s">
         <v>15</v>
@@ -28653,7 +28650,7 @@
         <v>179</v>
       </c>
       <c r="K362" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L362" t="s">
         <v>15</v>
@@ -29071,7 +29068,7 @@
         <v>105</v>
       </c>
       <c r="K373" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="L373" t="s">
         <v>15</v>
@@ -29223,7 +29220,7 @@
         <v>143</v>
       </c>
       <c r="K377" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="L377" t="s">
         <v>15</v>
@@ -29413,7 +29410,7 @@
         <v>134</v>
       </c>
       <c r="K382" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L382" t="s">
         <v>15</v>
@@ -29559,7 +29556,7 @@
         <v>1444</v>
       </c>
       <c r="K386" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="L386" t="s">
         <v>15</v>
@@ -30658,7 +30655,7 @@
         <v>1553</v>
       </c>
       <c r="K415" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L415" t="s">
         <v>20</v>
@@ -30696,7 +30693,7 @@
         <v>225</v>
       </c>
       <c r="K416" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L416" t="s">
         <v>15</v>
@@ -31032,7 +31029,7 @@
         <v>859</v>
       </c>
       <c r="K425" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L425" t="s">
         <v>15</v>
@@ -31713,7 +31710,7 @@
         <v>1288</v>
       </c>
       <c r="K443" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L443" t="s">
         <v>15</v>
@@ -32154,7 +32151,7 @@
         <v>1701</v>
       </c>
       <c r="K455" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L455" t="s">
         <v>15</v>
@@ -33022,7 +33019,7 @@
         <v>108</v>
       </c>
       <c r="K478" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L478" t="s">
         <v>15</v>
@@ -33323,7 +33320,7 @@
         <v>13737</v>
       </c>
       <c r="K486" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L486" t="s">
         <v>15</v>
@@ -33361,7 +33358,7 @@
         <v>383</v>
       </c>
       <c r="K487" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L487" t="s">
         <v>15</v>
@@ -34340,7 +34337,7 @@
         <v>448</v>
       </c>
       <c r="K513" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L513" t="s">
         <v>15</v>
@@ -34796,7 +34793,7 @@
         <v>1197</v>
       </c>
       <c r="K525" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L525" t="s">
         <v>15</v>
@@ -36047,7 +36044,7 @@
         <v>1004</v>
       </c>
       <c r="K558" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L558" t="s">
         <v>15</v>
@@ -38276,7 +38273,7 @@
         <v>2014</v>
       </c>
       <c r="K618" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L618" t="s">
         <v>15</v>
@@ -39068,7 +39065,7 @@
         <v>1197</v>
       </c>
       <c r="K639" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L639" t="s">
         <v>15</v>
@@ -46011,7 +46008,7 @@
         <v>13798</v>
       </c>
       <c r="K824" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="L824" t="s">
         <v>15</v>
@@ -48220,7 +48217,7 @@
         <v>104</v>
       </c>
       <c r="K883" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="L883" t="s">
         <v>15</v>
@@ -57400,7 +57397,7 @@
         <v>1164</v>
       </c>
       <c r="K1129" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L1129" t="s">
         <v>15</v>
@@ -66384,9 +66381,6 @@
       </c>
       <c r="I1368">
         <v>190</v>
-      </c>
-      <c r="K1368" t="s">
-        <v>4364</v>
       </c>
       <c r="L1368" t="s">
         <v>15</v>
